--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>第三小组计划实施表</t>
   </si>
   <si>
-    <t>日期：2017.9.6 第二周 周三</t>
+    <t>日期：2017.9.5 第二周 周二</t>
   </si>
   <si>
     <t>人员</t>
@@ -37,46 +37,247 @@
     <t>李杰</t>
   </si>
   <si>
+    <t>以小马公司的需求文档作参考，重新编写二手交易APP需求分析文档的一部分</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>周振朋</t>
+  </si>
+  <si>
+    <t>为二手交易APP取名，编写二手交易APP需求分析文档的用例图</t>
+  </si>
+  <si>
+    <t>该APP命名为“校易”，用例图规划完毕。</t>
+  </si>
+  <si>
+    <t>禤锦辉</t>
+  </si>
+  <si>
+    <t>讨论APP的功能需求，编写二手交易APP需求分析文档的后台结构图</t>
+  </si>
+  <si>
+    <t>柯新钿</t>
+  </si>
+  <si>
+    <t>讨论APP的功能需求，编写二手交易APP需求分析文档的功能模块图</t>
+  </si>
+  <si>
+    <t>只完成了一部分</t>
+  </si>
+  <si>
+    <t>冯文雄</t>
+  </si>
+  <si>
+    <t>讨论APP的功能需求，编写二手交易APP需求分析文档的前台结构图</t>
+  </si>
+  <si>
+    <t>阿卜力孜</t>
+  </si>
+  <si>
+    <t>讨论APP的功能需求</t>
+  </si>
+  <si>
+    <t>总结：完成情况良好，但时间把握的不是很好，下次努力</t>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三上午</t>
+  </si>
+  <si>
     <t>运用"墨刀"原型软件规划项目原型("首页"，"求购"，"消息"，"我的"等四个模块)</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>周振朋</t>
-  </si>
-  <si>
     <t>对"首页"模块的界面设计，运用画图工具设计界面。</t>
   </si>
   <si>
     <t>完成，但界面未整合到一起</t>
   </si>
   <si>
-    <t>禤锦辉</t>
-  </si>
-  <si>
     <t>列出前台功能清单，并对用户注册和用户登录进行用例描述</t>
   </si>
   <si>
-    <t>柯新钿</t>
-  </si>
-  <si>
     <t>对"求购信息"模块的界面设计，运用画图工具设计界面。</t>
   </si>
   <si>
-    <t>冯文雄</t>
-  </si>
-  <si>
     <t>对"消息"、"我的"等模块的界面设计，运用画图工具设计界面。</t>
   </si>
   <si>
-    <t>阿卜力孜</t>
-  </si>
-  <si>
     <t>列出后台功能清单，并对会员发布商品进行用例描述</t>
   </si>
   <si>
     <t>总结：完成情况良好，继续努力</t>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三下午</t>
+  </si>
+  <si>
+    <t>完善项目需求分析文档，整合项目原型</t>
+  </si>
+  <si>
+    <t>需求分析文档系统流程图未完成，项目原型整合完毕，但还有细节部分需修改</t>
+  </si>
+  <si>
+    <t>完善项目原型"首页"模块的细节(商品分类)</t>
+  </si>
+  <si>
+    <t>完善项目原型"我的"模块的细节</t>
+  </si>
+  <si>
+    <t>完善项目原型"求购"模块的细节</t>
+  </si>
+  <si>
+    <t>完善项目原型"消息"模块的细节</t>
+  </si>
+  <si>
+    <t>寻找项目原型所要用的图标、图片等</t>
+  </si>
+  <si>
+    <t>总结：时间把握得比上次好，下次继续加油</t>
+  </si>
+  <si>
+    <t>日期：2017.9.11 第三周 周一</t>
+  </si>
+  <si>
+    <t>整合项目原型，首页部分添加图标，和图片</t>
+  </si>
+  <si>
+    <t>首页中的动漫分类还没完成，其他部分已完善</t>
+  </si>
+  <si>
+    <t>决定项目整体色调，并测试</t>
+  </si>
+  <si>
+    <t>完成消息和我的界面的添加图标和图片</t>
+  </si>
+  <si>
+    <t>完成求购界面的图标和图片添加</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>总结：小组各成员完成得不错，时间掌握比上次好</t>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>完成了数据库的规划以及用户信息表</t>
+  </si>
+  <si>
+    <t>还有很多表需要设计字段</t>
+  </si>
+  <si>
+    <t>完善前端“首页”“我的”模块</t>
+  </si>
+  <si>
+    <t>重新设计了“首页”模块，“我的”模块未完成</t>
+  </si>
+  <si>
+    <t>完善前端“求购”模块</t>
+  </si>
+  <si>
+    <t>完善前端“消息”模块</t>
+  </si>
+  <si>
+    <t>后台可视化界面设计</t>
+  </si>
+  <si>
+    <t>帮助其他成员负责的模块的细节部分设计</t>
+  </si>
+  <si>
+    <t>总结：因为经过昨天的交流会发现了很多不足，所以今天对项目进行了大整改，以及开始着手对后台的开发，仍然需要加把劲赶上进度。</t>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一</t>
+  </si>
+  <si>
+    <t>数据库设计，如用户宝贝信息表，求购信息表，订单信息表，商品类别表</t>
+  </si>
+  <si>
+    <t>除“商品类别表”外均完成</t>
+  </si>
+  <si>
+    <t>完善“首页”模块，如商品的分类信息页面</t>
+  </si>
+  <si>
+    <t>完善“我的”模块，如我的发布，我的求购，我的收藏等页面</t>
+  </si>
+  <si>
+    <t>除“我的收藏”外均完成</t>
+  </si>
+  <si>
+    <t>完善“买卖”模块，如宝贝信息的详情页面、求购信息的详情页面</t>
+  </si>
+  <si>
+    <t>数据库设计，如聊天信息表，留言信息表，收藏信息表，搜索记录表</t>
+  </si>
+  <si>
+    <t>除“收藏信息表”和“搜索记录表”外均完成</t>
+  </si>
+  <si>
+    <t>填充页面内容，如求购信息的内容，宝贝信息的内容</t>
+  </si>
+  <si>
+    <t>总结：进度有点慢，要赶上去</t>
+  </si>
+  <si>
+    <t>日期：2017.9.17 第四周 周二</t>
+  </si>
+  <si>
+    <t>完成商品类别表，并使用springdata框架熟悉数据库操作</t>
+  </si>
+  <si>
+    <t>数据库表设计已完成，但未掌握操作</t>
+  </si>
+  <si>
+    <t>修改发布二手商品的页面，完善首页分类模块点击后的页面。</t>
+  </si>
+  <si>
+    <t>完成了4个页面，还差4个</t>
+  </si>
+  <si>
+    <t>完善“我的收藏”和“我的订单”页面</t>
+  </si>
+  <si>
+    <t>修改宝贝信息详情页面，完善发布宝贝、求购信息页面</t>
+  </si>
+  <si>
+    <t>完成收藏信息表和搜索记录表以及浏览记录表的数据库设计</t>
+  </si>
+  <si>
+    <t>填充“我的发布”，“我的求购”的页面内容</t>
+  </si>
+  <si>
+    <t>总结：进度稍微赶了上来，但仍需加快进度</t>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周三</t>
+  </si>
+  <si>
+    <t>继续熟悉掌握数据库操作以及进行数据库开发</t>
+  </si>
+  <si>
+    <t>继续完成首页分类模块点击后的页面，并完成搜索结果筛选页面</t>
+  </si>
+  <si>
+    <t>完成个人基本信息页面</t>
+  </si>
+  <si>
+    <t>完成“我的”模块设置页面</t>
+  </si>
+  <si>
+    <t>进行数据库开发</t>
+  </si>
+  <si>
+    <t>迟到</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
 </sst>
 </file>
@@ -114,7 +315,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +345,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +383,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,17 +407,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,31 +430,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,21 +464,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,25 +474,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,157 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +668,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +722,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,32 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -570,10 +771,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +783,137 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,14 +925,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -740,10 +944,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1191,171 +1395,797 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" ht="86.1" customHeight="1" spans="1:4">
+    <row r="6" ht="74.1" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" ht="93.95" customHeight="1" spans="1:4">
+    <row r="7" ht="74.1" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" ht="80.25" customHeight="1" spans="1:4">
+    <row r="8" ht="75.95" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" ht="77.25" customHeight="1" spans="1:4">
+    <row r="9" ht="57.95" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" ht="83.25" customHeight="1" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+    <row r="10" ht="33.95" customHeight="1" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" ht="33" customHeight="1"/>
-    <row r="12" ht="38" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
+    <row r="12" ht="30" customHeight="1" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="141.95" customHeight="1" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" ht="36" customHeight="1" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" ht="81" customHeight="1" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" ht="68.1" customHeight="1" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" ht="22.5" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+    <row r="16" ht="67.5" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" ht="22.5" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
+    <row r="17" ht="67.5" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" ht="22.5" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
+    <row r="18" ht="67.5" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" ht="69" customHeight="1" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" ht="73" customHeight="1" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="22.5" spans="1:4">
+    <row r="20" ht="42.95" customHeight="1" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" ht="27.95" customHeight="1" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" ht="22.5" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" ht="22.5" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" ht="22.5" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="69" customHeight="1" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" ht="22.5" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+    <row r="25" ht="45" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" ht="22.5" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+    <row r="26" ht="45" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" ht="22.5" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+    <row r="27" ht="45" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="6"/>
     </row>
+    <row r="28" ht="45" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" ht="45" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" ht="22.5" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" ht="24.95" customHeight="1"/>
+    <row r="32" ht="22.5" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" ht="22.5" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="45" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" ht="22.5" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" ht="45" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" ht="45" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" ht="38.1" customHeight="1" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" ht="29.1" customHeight="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" ht="22.5" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" ht="23.1" customHeight="1"/>
+    <row r="42" ht="22.5" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" ht="22.5" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" ht="56.1" customHeight="1" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" ht="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" ht="22.5" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" ht="22.5" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" ht="22.5" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" ht="45" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" ht="62.1" customHeight="1" spans="1:4">
+      <c r="A50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" ht="27" customHeight="1"/>
+    <row r="52" ht="22.5" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" ht="22.5" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" ht="74.1" customHeight="1" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" ht="51.95" customHeight="1" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" ht="78.95" customHeight="1" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" ht="67.5" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" ht="84.95" customHeight="1" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" ht="69.95" customHeight="1" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" ht="57" customHeight="1" spans="1:4">
+      <c r="A60" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" ht="36" customHeight="1"/>
+    <row r="62" ht="22.5" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" ht="22.5" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" ht="75" customHeight="1" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" ht="88" customHeight="1" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" ht="49" customHeight="1" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" ht="65" customHeight="1" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" ht="67.5" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" ht="54" customHeight="1" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" ht="53" customHeight="1" spans="1:4">
+      <c r="A70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" ht="36" customHeight="1"/>
+    <row r="72" ht="22.5" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" ht="22.5" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" ht="47" customHeight="1" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" ht="67.5" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" ht="40" customHeight="1" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" ht="33" customHeight="1" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" ht="32" customHeight="1" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" ht="22.5" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" ht="47" customHeight="1" spans="1:4">
+      <c r="A80" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A80:D80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <t>迟到</t>
   </si>
   <si>
-    <t>总结：</t>
+    <t>总结：虽然勉勉强强把原型做好了，但接下来要进行开发，才是重点，要加油。</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:D80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2106,7 +2106,9 @@
       <c r="B74" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" ht="67.5" spans="1:4">
@@ -2116,17 +2118,21 @@
       <c r="B75" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" ht="40" customHeight="1" spans="1:4">
+    <row r="76" ht="37" customHeight="1" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D76" s="6"/>
     </row>
     <row r="77" ht="33" customHeight="1" spans="1:4">
@@ -2136,7 +2142,9 @@
       <c r="B77" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D77" s="6"/>
     </row>
     <row r="78" ht="32" customHeight="1" spans="1:4">
@@ -2146,7 +2154,9 @@
       <c r="B78" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D78" s="6"/>
     </row>
     <row r="79" ht="22.5" spans="1:4">

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -226,7 +226,7 @@
     <t>总结：进度有点慢，要赶上去</t>
   </si>
   <si>
-    <t>日期：2017.9.17 第四周 周二</t>
+    <t>日期：2017.9.19 第四周 周二</t>
   </si>
   <si>
     <t>完成商品类别表，并使用springdata框架熟悉数据库操作</t>
@@ -256,7 +256,7 @@
     <t>总结：进度稍微赶了上来，但仍需加快进度</t>
   </si>
   <si>
-    <t>日期：2017.9.18 第四周 周三</t>
+    <t>日期：2017.9.20 第四周 周三</t>
   </si>
   <si>
     <t>继续熟悉掌握数据库操作以及进行数据库开发</t>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>总结：虽然勉勉强强把原型做好了，但接下来要进行开发，才是重点，要加油。</t>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一</t>
+  </si>
+  <si>
+    <t>编写数据库设计文档</t>
+  </si>
+  <si>
+    <t>编写用例规约</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
 </sst>
 </file>
@@ -285,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -444,13 +456,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -464,6 +469,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -474,12 +486,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,169 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,145 +783,145 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2177,8 +2189,98 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
     </row>
+    <row r="82" ht="22.5" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" ht="22.5" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" ht="22.5" spans="1:4">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" ht="22.5" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" ht="22.5" spans="1:4">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" ht="22.5" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" ht="22.5" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" ht="22.5" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" ht="22.5" spans="1:4">
+      <c r="A90" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2196,6 +2298,8 @@
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A90:D90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -286,10 +286,22 @@
     <t>编写数据库设计文档</t>
   </si>
   <si>
-    <t>编写用例规约</t>
-  </si>
-  <si>
-    <t>总结：</t>
+    <t>编写“个人信息管理”用例规约</t>
+  </si>
+  <si>
+    <t>完成了一部分</t>
+  </si>
+  <si>
+    <t>编写“首页”用例规约</t>
+  </si>
+  <si>
+    <t>编写“账号管理”用例规约</t>
+  </si>
+  <si>
+    <t>编写“查看买卖信息”用例规约</t>
+  </si>
+  <si>
+    <t>总结：明天早上马上完成用例规约</t>
   </si>
 </sst>
 </file>
@@ -298,9 +310,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -455,6 +467,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -462,7 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -486,6 +498,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,12 +516,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,31 +576,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,42 +648,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -618,55 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,10 +795,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +807,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,7 +1359,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:D90"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2218,17 +2230,21 @@
       <c r="B84" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" ht="22.5" spans="1:4">
+    <row r="85" ht="45" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D85" s="6"/>
     </row>
     <row r="86" ht="22.5" spans="1:4">
@@ -2236,9 +2252,11 @@
         <v>12</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D86" s="6"/>
     </row>
     <row r="87" ht="22.5" spans="1:4">
@@ -2246,9 +2264,11 @@
         <v>14</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D87" s="6"/>
     </row>
     <row r="88" ht="22.5" spans="1:4">
@@ -2258,22 +2278,26 @@
       <c r="B88" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" ht="22.5" spans="1:4">
+    <row r="89" ht="45" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D89" s="6"/>
     </row>
     <row r="90" ht="22.5" spans="1:4">
       <c r="A90" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -302,6 +302,27 @@
   </si>
   <si>
     <t>总结：明天早上马上完成用例规约</t>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二</t>
+  </si>
+  <si>
+    <t>熟悉小马后台框架并掌握操作数据库的方法</t>
+  </si>
+  <si>
+    <t>继续编写“个人信息管理”用例规约</t>
+  </si>
+  <si>
+    <t>继续编写“首页”用例规约</t>
+  </si>
+  <si>
+    <t>继续编写“账号管理”用例规约</t>
+  </si>
+  <si>
+    <t>继续编写“查看买卖信息”用例规约</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
 </sst>
 </file>
@@ -309,9 +330,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -341,13 +362,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,9 +389,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,13 +428,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -415,7 +436,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +710,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,24 +739,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,13 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,148 +813,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,10 +1377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2303,8 +2324,98 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
     </row>
+    <row r="92" ht="22.5" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" ht="22.5" spans="1:4">
+      <c r="A93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" ht="45" spans="1:4">
+      <c r="A94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" ht="45" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" ht="22.5" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" ht="45" spans="1:4">
+      <c r="A97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" ht="45" spans="1:4">
+      <c r="A98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" ht="45" spans="1:4">
+      <c r="A99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" ht="22.5" spans="1:4">
+      <c r="A100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2324,6 +2435,8 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A100:D100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -320,6 +320,27 @@
   </si>
   <si>
     <t>继续编写“查看买卖信息”用例规约</t>
+  </si>
+  <si>
+    <t>总结：都已完成</t>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三</t>
+  </si>
+  <si>
+    <t>编写后台“用户管理”的数据交互</t>
+  </si>
+  <si>
+    <t>学习HBuilder软件操作并学习h5教程，完成视频播放demo</t>
+  </si>
+  <si>
+    <t>学习HBuilder软件操作并学习h5教程</t>
+  </si>
+  <si>
+    <t>学习HBuilder软件操作并学习h5教程，完成拖放demo</t>
+  </si>
+  <si>
+    <t>编写后台“商品类别管理”的数据交互</t>
   </si>
   <si>
     <t>总结：</t>
@@ -330,9 +351,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -362,12 +383,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,17 +411,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +442,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -436,7 +457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +473,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +540,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,19 +588,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +648,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -609,12 +672,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,79 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,15 +731,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,11 +751,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +788,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,148 +834,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,10 +1398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2353,7 +2374,9 @@
       <c r="B94" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D94" s="5"/>
     </row>
     <row r="95" ht="45" spans="1:4">
@@ -2363,7 +2386,9 @@
       <c r="B95" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D95" s="6"/>
     </row>
     <row r="96" ht="22.5" spans="1:4">
@@ -2373,7 +2398,9 @@
       <c r="B96" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D96" s="6"/>
     </row>
     <row r="97" ht="45" spans="1:4">
@@ -2383,7 +2410,9 @@
       <c r="B97" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D97" s="6"/>
     </row>
     <row r="98" ht="45" spans="1:4">
@@ -2393,7 +2422,9 @@
       <c r="B98" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D98" s="6"/>
     </row>
     <row r="99" ht="45" spans="1:4">
@@ -2403,7 +2434,9 @@
       <c r="B99" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D99" s="6"/>
     </row>
     <row r="100" ht="22.5" spans="1:4">
@@ -2414,8 +2447,98 @@
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
     </row>
+    <row r="102" ht="22.5" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" ht="22.5" spans="1:4">
+      <c r="A103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" ht="51" customHeight="1" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" ht="77" customHeight="1" spans="1:4">
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" ht="58" customHeight="1" spans="1:4">
+      <c r="A106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" ht="61" customHeight="1" spans="1:4">
+      <c r="A107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" ht="67" customHeight="1" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" ht="48" customHeight="1" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" ht="35" customHeight="1" spans="1:4">
+      <c r="A110" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2437,6 +2560,8 @@
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A110:D110"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
     <t>编写后台“商品类别管理”的数据交互</t>
   </si>
   <si>
-    <t>总结：</t>
+    <t>总结：做后台的要加把劲</t>
   </si>
 </sst>
 </file>
@@ -352,9 +352,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -509,9 +509,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,8 +523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,6 +546,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -558,30 +570,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,48 +594,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,13 +654,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,54 +721,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,142 +837,142 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1400,7 +1400,7 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="A110" sqref="A110:D110"/>
     </sheetView>
   </sheetViews>
@@ -2476,7 +2476,9 @@
       <c r="B104" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D104" s="5"/>
     </row>
     <row r="105" ht="77" customHeight="1" spans="1:4">
@@ -2486,7 +2488,9 @@
       <c r="B105" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" ht="58" customHeight="1" spans="1:4">
@@ -2496,7 +2500,9 @@
       <c r="B106" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="9"/>
+      <c r="C106" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" ht="61" customHeight="1" spans="1:4">
@@ -2506,7 +2512,9 @@
       <c r="B107" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D107" s="6"/>
     </row>
     <row r="108" ht="67" customHeight="1" spans="1:4">
@@ -2516,7 +2524,9 @@
       <c r="B108" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D108" s="6"/>
     </row>
     <row r="109" ht="48" customHeight="1" spans="1:4">
@@ -2526,7 +2536,9 @@
       <c r="B109" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D109" s="6"/>
     </row>
     <row r="110" ht="35" customHeight="1" spans="1:4">

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -344,6 +344,57 @@
   </si>
   <si>
     <t>总结：做后台的要加把劲</t>
+  </si>
+  <si>
+    <t>日期：2017.10.11 第七周 周三</t>
+  </si>
+  <si>
+    <t>继续编写后台“用户管理”的数据交互，并完成数据库接口文档</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>尝试开发“首页”界面</t>
+  </si>
+  <si>
+    <t>尝试开发“买卖”界面</t>
+  </si>
+  <si>
+    <t>尝试开发“登录”界面</t>
+  </si>
+  <si>
+    <t>完成web接口设计文档</t>
+  </si>
+  <si>
+    <t>尝试开发“我的”界面</t>
+  </si>
+  <si>
+    <t>总结：未恢复状态，完成情况很差</t>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第八周 周一</t>
+  </si>
+  <si>
+    <t>完善数据库接口文档和web接口文档</t>
+  </si>
+  <si>
+    <t>继续开发“首页”界面</t>
+  </si>
+  <si>
+    <t>继续开发“买卖”界面</t>
+  </si>
+  <si>
+    <t>开发“注册”界面</t>
+  </si>
+  <si>
+    <t>继续编写后台“商品类别管理”的数据交互</t>
+  </si>
+  <si>
+    <t>继续开发“我的”界面</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
 </sst>
 </file>
@@ -351,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -383,36 +434,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,18 +454,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,15 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -480,10 +521,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,22 +536,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +561,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,187 +591,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,6 +782,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,23 +851,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,184 +882,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,10 +1449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:D110"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2549,8 +2600,201 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
     </row>
+    <row r="112" ht="22.5" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" ht="22.5" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" ht="68" customHeight="1" spans="1:4">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" ht="22.5" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" ht="22.5" spans="1:4">
+      <c r="A116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" ht="22.5" spans="1:4">
+      <c r="A117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" ht="22.5" spans="1:4">
+      <c r="A118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" ht="22.5" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" ht="22.5" spans="1:4">
+      <c r="A120" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" ht="29" customHeight="1"/>
+    <row r="122" ht="22.5" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" ht="22.5" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" ht="45" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" ht="22.5" spans="1:4">
+      <c r="A125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" ht="22.5" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" ht="22.5" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" ht="45" spans="1:4">
+      <c r="A128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" ht="22.5" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" ht="22.5" spans="1:4">
+      <c r="A130" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2574,6 +2818,10 @@
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A102:D102"/>
     <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A130:D130"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -379,19 +379,34 @@
     <t>完善数据库接口文档和web接口文档</t>
   </si>
   <si>
+    <t>完成web接口文档</t>
+  </si>
+  <si>
     <t>继续开发“首页”界面</t>
   </si>
   <si>
     <t>继续开发“买卖”界面</t>
   </si>
   <si>
-    <t>开发“注册”界面</t>
+    <t>完善“登录”界面，并开发“注册”界面</t>
+  </si>
+  <si>
+    <t>完成“登录”界面</t>
   </si>
   <si>
     <t>继续编写后台“商品类别管理”的数据交互</t>
   </si>
   <si>
     <t>继续开发“我的”界面</t>
+  </si>
+  <si>
+    <t>总结：代码开发已经开始，要努力了</t>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三</t>
+  </si>
+  <si>
+    <t>修改数据库接口文档和web接口文档，然后编写后台“用户管理”的数据交互</t>
   </si>
   <si>
     <t>总结：</t>
@@ -402,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -428,6 +443,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,107 +490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,6 +512,90 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -591,25 +606,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,157 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,54 +797,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -851,8 +818,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,151 +888,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:D130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2732,7 +2747,9 @@
       <c r="B124" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="5"/>
+      <c r="C124" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D124" s="5"/>
     </row>
     <row r="125" ht="22.5" spans="1:4">
@@ -2740,9 +2757,11 @@
         <v>9</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C125" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D125" s="6"/>
     </row>
     <row r="126" ht="22.5" spans="1:4">
@@ -2750,19 +2769,23 @@
         <v>12</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" ht="22.5" spans="1:4">
+    <row r="127" ht="45" spans="1:4">
       <c r="A127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C127" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="D127" s="6"/>
     </row>
     <row r="128" ht="45" spans="1:4">
@@ -2770,9 +2793,11 @@
         <v>17</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D128" s="6"/>
     </row>
     <row r="129" ht="22.5" spans="1:4">
@@ -2780,21 +2805,113 @@
         <v>19</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C129" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D129" s="6"/>
     </row>
     <row r="130" ht="22.5" spans="1:4">
       <c r="A130" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
     </row>
+    <row r="132" ht="22.5" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" ht="22.5" spans="1:4">
+      <c r="A133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" ht="67.5" spans="1:4">
+      <c r="A134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" ht="22.5" spans="1:4">
+      <c r="A135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" ht="22.5" spans="1:4">
+      <c r="A136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" ht="45" spans="1:4">
+      <c r="A137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" ht="45" spans="1:4">
+      <c r="A138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" ht="22.5" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" ht="22.5" spans="1:4">
+      <c r="A140" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2822,6 +2939,8 @@
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A122:D122"/>
     <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A140:D140"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -407,6 +407,36 @@
   </si>
   <si>
     <t>修改数据库接口文档和web接口文档，然后编写后台“用户管理”的数据交互</t>
+  </si>
+  <si>
+    <t>完成“分类”模块</t>
+  </si>
+  <si>
+    <t>“登录”界面已完善</t>
+  </si>
+  <si>
+    <t>总结：应该细分模块，直接开发一个页面工作量太大</t>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一</t>
+  </si>
+  <si>
+    <t>开发后台“用户管理”模块</t>
+  </si>
+  <si>
+    <t>开发前端首页的“轮播图”模块以及下方的“宝贝信息”模块</t>
+  </si>
+  <si>
+    <t>设计图标，添加数据库数据</t>
+  </si>
+  <si>
+    <t>开发前端“注册”模块</t>
+  </si>
+  <si>
+    <t>开发后台“宝贝管理”模块</t>
+  </si>
+  <si>
+    <t>添加数据库的数据</t>
   </si>
   <si>
     <t>总结：</t>
@@ -447,14 +477,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +512,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,14 +536,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,21 +551,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,9 +580,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,15 +605,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,17 +613,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,14 +626,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -603,6 +633,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -618,13 +678,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,73 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,60 +792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,17 +830,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,15 +844,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,21 +859,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,6 +880,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -888,160 +927,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2849,7 +2879,9 @@
       <c r="B134" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D134" s="5"/>
     </row>
     <row r="135" ht="22.5" spans="1:4">
@@ -2859,7 +2891,9 @@
       <c r="B135" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="5"/>
+      <c r="C135" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D135" s="6"/>
     </row>
     <row r="136" ht="22.5" spans="1:4">
@@ -2869,7 +2903,9 @@
       <c r="B136" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D136" s="6"/>
     </row>
     <row r="137" ht="45" spans="1:4">
@@ -2879,7 +2915,9 @@
       <c r="B137" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="D137" s="6"/>
     </row>
     <row r="138" ht="45" spans="1:4">
@@ -2889,7 +2927,9 @@
       <c r="B138" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C138" s="5"/>
+      <c r="C138" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D138" s="6"/>
     </row>
     <row r="139" ht="22.5" spans="1:4">
@@ -2899,19 +2939,111 @@
       <c r="B139" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D139" s="6"/>
     </row>
     <row r="140" ht="22.5" spans="1:4">
       <c r="A140" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
+    <row r="142" ht="22.5" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" ht="22.5" spans="1:4">
+      <c r="A143" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" ht="67.5" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" ht="67.5" spans="1:4">
+      <c r="A145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" ht="22.5" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" ht="45" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" ht="45" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" ht="22.5" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" ht="22.5" spans="1:4">
+      <c r="A150" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2941,6 +3073,8 @@
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="A132:D132"/>
     <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A150:D150"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12225" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -430,16 +430,25 @@
     <t>设计图标，添加数据库数据</t>
   </si>
   <si>
+    <t>用户和宝贝信息添加完成</t>
+  </si>
+  <si>
     <t>开发前端“注册”模块</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>开发后台“宝贝管理”模块</t>
   </si>
   <si>
     <t>添加数据库的数据</t>
   </si>
   <si>
-    <t>总结：</t>
+    <t>求购信息添加完成</t>
+  </si>
+  <si>
+    <t>总结：应该再细分，提高工作效率</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -477,29 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,10 +499,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,7 +538,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -542,39 +559,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,7 +591,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,6 +607,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +645,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,151 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,18 +826,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,15 +836,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,6 +859,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,148 +939,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,7 +1506,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="A150" sqref="A150:D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2974,14 +2983,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="67.5" spans="1:4">
+    <row r="144" ht="22.5" spans="1:4">
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="5"/>
+      <c r="C144" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D144" s="5"/>
     </row>
     <row r="145" ht="67.5" spans="1:4">
@@ -2991,7 +3002,9 @@
       <c r="B145" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="5"/>
+      <c r="C145" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D145" s="6"/>
     </row>
     <row r="146" ht="22.5" spans="1:4">
@@ -3001,27 +3014,33 @@
       <c r="B146" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" ht="45" spans="1:4">
+    <row r="147" ht="22.5" spans="1:4">
       <c r="A147" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C147" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D147" s="6"/>
     </row>
-    <row r="148" ht="45" spans="1:4">
+    <row r="148" ht="22.5" spans="1:4">
       <c r="A148" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C148" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D148" s="6"/>
     </row>
     <row r="149" ht="22.5" spans="1:4">
@@ -3029,14 +3048,16 @@
         <v>19</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C149" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="D149" s="6"/>
     </row>
     <row r="150" ht="22.5" spans="1:4">
       <c r="A150" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12225" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -449,6 +449,30 @@
   </si>
   <si>
     <t>总结：应该再细分，提高工作效率</t>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周二</t>
+  </si>
+  <si>
+    <t>开发后台“用户管理”模块中的控制层(controller)</t>
+  </si>
+  <si>
+    <t>开发前端首页的“分类”模块</t>
+  </si>
+  <si>
+    <t>设计图标，添加订单表和商品类别表数据</t>
+  </si>
+  <si>
+    <t>开发前端“我的”模块</t>
+  </si>
+  <si>
+    <t>开发后台“宝贝管理”模块中的控制层(controller)</t>
+  </si>
+  <si>
+    <t>添加数据库的宝贝留言表和求购留言表的数据</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
 </sst>
 </file>
@@ -456,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -492,10 +516,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,6 +601,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -515,24 +616,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,66 +639,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -622,15 +654,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +693,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,157 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,11 +863,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,216 +960,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,10 +1527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:D150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3063,8 +3087,98 @@
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
+    <row r="152" ht="22.5" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" ht="22.5" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" ht="45" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" ht="45" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" ht="45" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" ht="22.5" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" ht="45" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" ht="45" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" ht="22.5" spans="1:4">
+      <c r="A160" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3096,6 +3210,8 @@
     <mergeCell ref="A140:D140"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A160:D160"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -451,7 +451,7 @@
     <t>总结：应该再细分，提高工作效率</t>
   </si>
   <si>
-    <t>日期：2017.10.23 第九周 周二</t>
+    <t>日期：2017.10.24 第九周 周二</t>
   </si>
   <si>
     <t>开发后台“用户管理”模块中的控制层(controller)</t>
@@ -470,6 +470,30 @@
   </si>
   <si>
     <t>添加数据库的宝贝留言表和求购留言表的数据</t>
+  </si>
+  <si>
+    <t>总结：这次完成情况还可以，继续加油</t>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三</t>
+  </si>
+  <si>
+    <t>开发后台“订单管理”模块中的实体类和控制层(controller)</t>
+  </si>
+  <si>
+    <t>继续开发前端首页的“分类”模块</t>
+  </si>
+  <si>
+    <t>添加聊天信息表和收藏信息表数据</t>
+  </si>
+  <si>
+    <t>继续开发前端“我的”模块</t>
+  </si>
+  <si>
+    <t>继续开发后台“宝贝管理”模块中的控制层(controller)</t>
+  </si>
+  <si>
+    <t>添加数据库的搜索记录表和浏览记录表的数据</t>
   </si>
   <si>
     <t>总结：</t>
@@ -481,9 +505,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -510,15 +534,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,9 +569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -577,8 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,9 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +645,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -638,15 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +729,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -699,43 +753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +783,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,55 +843,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +884,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,26 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,6 +952,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -927,49 +984,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,31 +1002,31 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,100 +1035,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,10 +1551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3116,7 +3140,9 @@
       <c r="B154" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D154" s="5"/>
     </row>
     <row r="155" ht="45" spans="1:4">
@@ -3126,7 +3152,9 @@
       <c r="B155" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D155" s="6"/>
     </row>
     <row r="156" ht="45" spans="1:4">
@@ -3136,7 +3164,9 @@
       <c r="B156" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C156" s="9"/>
+      <c r="C156" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D156" s="6"/>
     </row>
     <row r="157" ht="22.5" spans="1:4">
@@ -3146,7 +3176,9 @@
       <c r="B157" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D157" s="6"/>
     </row>
     <row r="158" ht="45" spans="1:4">
@@ -3156,7 +3188,9 @@
       <c r="B158" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D158" s="6"/>
     </row>
     <row r="159" ht="45" spans="1:4">
@@ -3166,7 +3200,9 @@
       <c r="B159" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C159" s="9"/>
+      <c r="C159" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D159" s="6"/>
     </row>
     <row r="160" ht="22.5" spans="1:4">
@@ -3177,8 +3213,98 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
+    <row r="162" ht="22.5" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" ht="22.5" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" ht="67.5" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" ht="45" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" ht="45" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" ht="22.5" spans="1:4">
+      <c r="A167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" ht="67.5" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" ht="45" spans="1:4">
+      <c r="A169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" ht="22.5" spans="1:4">
+      <c r="A170" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3212,6 +3338,8 @@
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="A152:D152"/>
     <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A170:D170"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -494,6 +494,21 @@
   </si>
   <si>
     <t>添加数据库的搜索记录表和浏览记录表的数据</t>
+  </si>
+  <si>
+    <t>总结：还有一个月时间，要尽快了</t>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一</t>
+  </si>
+  <si>
+    <t>继续开发后台“订单管理”模块中的实体类和控制层(controller)</t>
+  </si>
+  <si>
+    <t>完成首页“分类”模块以及开发前端首页的“宝贝分类”模块</t>
+  </si>
+  <si>
+    <t>帮助前端开发人员开发其中一个小模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -505,9 +520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -534,14 +549,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,8 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,6 +601,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -591,9 +616,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,8 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,22 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -670,15 +679,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,19 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,37 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,31 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,37 +834,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,24 +899,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,17 +917,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,6 +958,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -960,27 +977,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +1005,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,133 +1017,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1551,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3242,7 +3257,9 @@
       <c r="B164" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D164" s="5"/>
     </row>
     <row r="165" ht="45" spans="1:4">
@@ -3252,7 +3269,9 @@
       <c r="B165" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C165" s="5"/>
+      <c r="C165" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D165" s="6"/>
     </row>
     <row r="166" ht="45" spans="1:4">
@@ -3262,7 +3281,9 @@
       <c r="B166" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C166" s="9"/>
+      <c r="C166" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D166" s="6"/>
     </row>
     <row r="167" ht="22.5" spans="1:4">
@@ -3272,7 +3293,9 @@
       <c r="B167" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D167" s="6"/>
     </row>
     <row r="168" ht="67.5" spans="1:4">
@@ -3282,7 +3305,9 @@
       <c r="B168" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C168" s="5"/>
+      <c r="C168" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D168" s="6"/>
     </row>
     <row r="169" ht="45" spans="1:4">
@@ -3292,7 +3317,9 @@
       <c r="B169" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D169" s="6"/>
     </row>
     <row r="170" ht="22.5" spans="1:4">
@@ -3303,8 +3330,98 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
     </row>
+    <row r="172" ht="22.5" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" ht="22.5" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" ht="67.5" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" ht="67.5" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" ht="45" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" ht="22.5" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" ht="67.5" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" ht="45" spans="1:4">
+      <c r="A179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" ht="22.5" spans="1:4">
+      <c r="A180" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3340,6 +3457,8 @@
     <mergeCell ref="A160:D160"/>
     <mergeCell ref="A162:D162"/>
     <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A180:D180"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -509,6 +509,51 @@
   </si>
   <si>
     <t>帮助前端开发人员开发其中一个小模块</t>
+  </si>
+  <si>
+    <t>总结：进度缓慢，建议在课余抽空完成</t>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二</t>
+  </si>
+  <si>
+    <t>完成首页“为你推荐”模块</t>
+  </si>
+  <si>
+    <t>帮助完善“为你推荐”模块</t>
+  </si>
+  <si>
+    <t>总结：听从老师建议，全力加速</t>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三</t>
+  </si>
+  <si>
+    <t>开发后台“商品类别”模块</t>
+  </si>
+  <si>
+    <t>完善首页所有模块</t>
+  </si>
+  <si>
+    <t>帮助完善首页所有模块</t>
+  </si>
+  <si>
+    <t>帮助开发后台“商品类别”模块</t>
+  </si>
+  <si>
+    <t>总结：前端进度缓慢，后台加速写好帮助前端</t>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一</t>
+  </si>
+  <si>
+    <t>继续开发后台“商品类别管理”模块</t>
+  </si>
+  <si>
+    <t>开发前端“我的”模块中的“我的收藏”模块，并按照“我的收藏”模板做好“我的订单”，“我的发布”，“我的求购”等三个模块</t>
+  </si>
+  <si>
+    <t>开发web app接口中的“用户管理”</t>
   </si>
   <si>
     <t>总结：</t>
@@ -519,12 +564,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,108 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -664,7 +609,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +670,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,6 +714,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -692,8 +729,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,13 +772,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,54 +880,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,7 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,79 +916,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +951,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,38 +1035,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,188 +1051,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,6 +1233,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1566,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3359,7 +3426,9 @@
       <c r="B174" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="5"/>
+      <c r="C174" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" ht="67.5" spans="1:4">
@@ -3369,7 +3438,9 @@
       <c r="B175" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="5"/>
+      <c r="C175" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D175" s="6"/>
     </row>
     <row r="176" ht="45" spans="1:4">
@@ -3379,7 +3450,9 @@
       <c r="B176" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="22.5" spans="1:4">
@@ -3389,7 +3462,9 @@
       <c r="B177" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="9"/>
+      <c r="C177" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D177" s="6"/>
     </row>
     <row r="178" ht="67.5" spans="1:4">
@@ -3399,7 +3474,9 @@
       <c r="B178" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D178" s="6"/>
     </row>
     <row r="179" ht="45" spans="1:4">
@@ -3409,7 +3486,9 @@
       <c r="B179" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C179" s="9"/>
+      <c r="C179" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="D179" s="6"/>
     </row>
     <row r="180" ht="22.5" spans="1:4">
@@ -3420,8 +3499,302 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
     </row>
+    <row r="182" ht="22.5" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" ht="22.5" spans="1:4">
+      <c r="A183" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" ht="67.5" spans="1:4">
+      <c r="A184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" ht="22.5" spans="1:4">
+      <c r="A185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" ht="22.5" spans="1:4">
+      <c r="A186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" ht="22.5" spans="1:4">
+      <c r="A187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" ht="67.5" spans="1:4">
+      <c r="A188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" ht="45" spans="1:4">
+      <c r="A189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" ht="22.5" spans="1:4">
+      <c r="A190" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+    </row>
+    <row r="192" ht="22.5" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" ht="22.5" spans="1:4">
+      <c r="A193" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" ht="22.5" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" ht="22.5" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" ht="22.5" spans="1:4">
+      <c r="A196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" ht="22.5" spans="1:4">
+      <c r="A197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" ht="45" spans="1:4">
+      <c r="A198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" ht="45" spans="1:4">
+      <c r="A199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" ht="22.5" spans="1:4">
+      <c r="A200" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+    </row>
+    <row r="202" ht="22.5" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" ht="22.5" spans="1:4">
+      <c r="A203" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" ht="45" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="15"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" ht="22.5" spans="1:4">
+      <c r="A205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C205" s="15"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" ht="45" spans="1:4">
+      <c r="A206" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" ht="112.5" spans="1:4">
+      <c r="A207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" ht="45" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C208" s="15"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" ht="45" spans="1:4">
+      <c r="A209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" ht="22.5" spans="1:4">
+      <c r="A210" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="43">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3459,6 +3832,12 @@
     <mergeCell ref="A170:D170"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A210:D210"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -544,16 +544,19 @@
     <t>总结：前端进度缓慢，后台加速写好帮助前端</t>
   </si>
   <si>
-    <t>日期：2017.11.6 第十一周 周一</t>
-  </si>
-  <si>
-    <t>继续开发后台“商品类别管理”模块</t>
+    <t>日期：2017.11.6&amp;11.7 第十一周 周一&amp;周二</t>
+  </si>
+  <si>
+    <t>继续开发后台“商品类别管理”模块并开发web app接口中的“订单管理”</t>
+  </si>
+  <si>
+    <t>完善首页所有模块，并尝试开发“买卖”模块</t>
   </si>
   <si>
     <t>开发前端“我的”模块中的“我的收藏”模块，并按照“我的收藏”模板做好“我的订单”，“我的发布”，“我的求购”等三个模块</t>
   </si>
   <si>
-    <t>开发web app接口中的“用户管理”</t>
+    <t>开发web app接口中的“用户管理”，完成用户管理后尽量开发“宝贝管理”模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -564,12 +567,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,8 +596,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,60 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,47 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,21 +741,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,7 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,31 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +804,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +882,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,85 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,6 +950,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -964,16 +975,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,6 +1006,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1003,31 +1025,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,166 +1047,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1235,20 +1231,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1636,7 +1620,7 @@
   <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:D202"/>
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3438,7 +3422,7 @@
       <c r="B175" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D175" s="6"/>
@@ -3450,7 +3434,7 @@
       <c r="B176" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D176" s="6"/>
@@ -3462,7 +3446,7 @@
       <c r="B177" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D177" s="6"/>
@@ -3474,7 +3458,7 @@
       <c r="B178" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D178" s="6"/>
@@ -3486,7 +3470,7 @@
       <c r="B179" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D179" s="6"/>
@@ -3525,10 +3509,10 @@
       <c r="A184" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C184" s="15" t="s">
+      <c r="C184" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="5"/>
@@ -3537,10 +3521,10 @@
       <c r="A185" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="6"/>
@@ -3549,10 +3533,10 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="6"/>
@@ -3561,10 +3545,10 @@
       <c r="A187" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D187" s="6"/>
@@ -3573,10 +3557,10 @@
       <c r="A188" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C188" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="6"/>
@@ -3585,16 +3569,16 @@
       <c r="A189" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="6"/>
     </row>
     <row r="190" ht="22.5" spans="1:4">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B190" s="11"/>
@@ -3627,10 +3611,10 @@
       <c r="A194" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D194" s="5"/>
@@ -3639,10 +3623,10 @@
       <c r="A195" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D195" s="6"/>
@@ -3651,10 +3635,10 @@
       <c r="A196" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D196" s="6"/>
@@ -3663,10 +3647,10 @@
       <c r="A197" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D197" s="6"/>
@@ -3675,10 +3659,10 @@
       <c r="A198" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D198" s="6"/>
@@ -3687,16 +3671,16 @@
       <c r="A199" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D199" s="6"/>
     </row>
     <row r="200" ht="22.5" spans="1:4">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B200" s="11"/>
@@ -3725,69 +3709,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="45" spans="1:4">
+    <row r="204" ht="67.5" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C204" s="15"/>
+      <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" ht="22.5" spans="1:4">
+    <row r="205" ht="45" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C205" s="15"/>
+      <c r="B205" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C205" s="5"/>
       <c r="D205" s="6"/>
     </row>
     <row r="206" ht="45" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C206" s="13"/>
+      <c r="C206" s="9"/>
       <c r="D206" s="6"/>
     </row>
     <row r="207" ht="112.5" spans="1:4">
       <c r="A207" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C207" s="13"/>
+      <c r="B207" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C207" s="9"/>
       <c r="D207" s="6"/>
     </row>
-    <row r="208" ht="45" spans="1:4">
+    <row r="208" ht="67.5" spans="1:4">
       <c r="A208" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B208" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C208" s="15"/>
+      <c r="B208" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C208" s="5"/>
       <c r="D208" s="6"/>
     </row>
     <row r="209" ht="45" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C209" s="13"/>
+      <c r="C209" s="9"/>
       <c r="D209" s="6"/>
     </row>
     <row r="210" ht="22.5" spans="1:4">
-      <c r="A210" s="16" t="s">
-        <v>180</v>
+      <c r="A210" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -550,6 +550,9 @@
     <t>继续开发后台“商品类别管理”模块并开发web app接口中的“订单管理”</t>
   </si>
   <si>
+    <t>完成“商品类别管理”模块</t>
+  </si>
+  <si>
     <t>完善首页所有模块，并尝试开发“买卖”模块</t>
   </si>
   <si>
@@ -557,6 +560,15 @@
   </si>
   <si>
     <t>开发web app接口中的“用户管理”，完成用户管理后尽量开发“宝贝管理”模块</t>
+  </si>
+  <si>
+    <t>总结：前端可以参考别人源码</t>
+  </si>
+  <si>
+    <t>日期：2017.11.8 第十一周 周三</t>
+  </si>
+  <si>
+    <t>开发web app接口所有模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -567,10 +579,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -597,29 +609,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -633,9 +622,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,14 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -665,54 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,6 +688,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -741,7 +721,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,37 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,67 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,13 +894,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,76 +962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,156 +989,221 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3709,14 +3721,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="67.5" spans="1:4">
+    <row r="204" ht="68" customHeight="1" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C204" s="5"/>
+      <c r="C204" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D204" s="5"/>
     </row>
     <row r="205" ht="45" spans="1:4">
@@ -3724,9 +3738,11 @@
         <v>9</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C205" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D205" s="6"/>
     </row>
     <row r="206" ht="45" spans="1:4">
@@ -3736,7 +3752,9 @@
       <c r="B206" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C206" s="9"/>
+      <c r="C206" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D206" s="6"/>
     </row>
     <row r="207" ht="112.5" spans="1:4">
@@ -3744,9 +3762,11 @@
         <v>14</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C207" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D207" s="6"/>
     </row>
     <row r="208" ht="67.5" spans="1:4">
@@ -3754,9 +3774,11 @@
         <v>17</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C208" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D208" s="6"/>
     </row>
     <row r="209" ht="45" spans="1:4">
@@ -3766,19 +3788,111 @@
       <c r="B209" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C209" s="9"/>
+      <c r="C209" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D209" s="6"/>
     </row>
     <row r="210" ht="22.5" spans="1:4">
       <c r="A210" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
     </row>
+    <row r="212" ht="22.5" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" ht="22.5" spans="1:4">
+      <c r="A213" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" ht="22.5" spans="1:4">
+      <c r="A214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" ht="45" spans="1:4">
+      <c r="A215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" ht="45" spans="1:4">
+      <c r="A216" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" s="6"/>
+    </row>
+    <row r="217" ht="112.5" spans="1:4">
+      <c r="A217" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" ht="22.5" spans="1:4">
+      <c r="A218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" ht="45" spans="1:4">
+      <c r="A219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" ht="22.5" spans="1:4">
+      <c r="A220" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3822,6 +3936,8 @@
     <mergeCell ref="A200:D200"/>
     <mergeCell ref="A202:D202"/>
     <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A220:D220"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -569,6 +569,24 @@
   </si>
   <si>
     <t>开发web app接口所有模块</t>
+  </si>
+  <si>
+    <t>完成"首页"模块</t>
+  </si>
+  <si>
+    <t>完成"设置"模块</t>
+  </si>
+  <si>
+    <t>总结：加紧时间</t>
+  </si>
+  <si>
+    <t>日期：2017.11.13&amp;11.14 第十二周 周一&amp;周二</t>
+  </si>
+  <si>
+    <t>开发“买卖”模块</t>
+  </si>
+  <si>
+    <t>开发前端“我的”模块中的“我的收藏”模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -609,30 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,6 +635,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +656,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -661,14 +672,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,25 +739,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,39 +771,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,13 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,13 +804,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +906,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,37 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,61 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,26 +980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,7 +999,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,15 +1021,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1030,17 +1030,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,151 +1068,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,10 +1647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3830,7 +3848,9 @@
       <c r="B214" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C214" s="5"/>
+      <c r="C214" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D214" s="5"/>
     </row>
     <row r="215" ht="45" spans="1:4">
@@ -3840,7 +3860,9 @@
       <c r="B215" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C215" s="5"/>
+      <c r="C215" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D215" s="6"/>
     </row>
     <row r="216" ht="45" spans="1:4">
@@ -3850,7 +3872,9 @@
       <c r="B216" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="C216" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D216" s="6"/>
     </row>
     <row r="217" ht="112.5" spans="1:4">
@@ -3860,7 +3884,9 @@
       <c r="B217" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="D217" s="6"/>
     </row>
     <row r="218" ht="22.5" spans="1:4">
@@ -3870,7 +3896,9 @@
       <c r="B218" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C218" s="5"/>
+      <c r="C218" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D218" s="6"/>
     </row>
     <row r="219" ht="45" spans="1:4">
@@ -3880,19 +3908,111 @@
       <c r="B219" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C219" s="9"/>
+      <c r="C219" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D219" s="6"/>
     </row>
     <row r="220" ht="22.5" spans="1:4">
       <c r="A220" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
     </row>
+    <row r="222" ht="22.5" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" ht="22.5" spans="1:4">
+      <c r="A223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" ht="22.5" spans="1:4">
+      <c r="A224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" ht="22.5" spans="1:4">
+      <c r="A225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
+    </row>
+    <row r="226" ht="45" spans="1:4">
+      <c r="A226" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" ht="45" spans="1:4">
+      <c r="A227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="6"/>
+    </row>
+    <row r="228" ht="22.5" spans="1:4">
+      <c r="A228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" ht="45" spans="1:4">
+      <c r="A229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="230" ht="22.5" spans="1:4">
+      <c r="A230" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -3938,6 +4058,8 @@
     <mergeCell ref="A210:D210"/>
     <mergeCell ref="A212:D212"/>
     <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A230:D230"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>开发前端“我的”模块中的“我的收藏”模块</t>
+  </si>
+  <si>
+    <t>总结：进度缓慢</t>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第十二周 周三</t>
+  </si>
+  <si>
+    <t>完善前端“我的”模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -597,10 +606,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -629,14 +638,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,29 +771,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -786,7 +795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,12 +885,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -906,36 +933,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -970,6 +967,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -977,6 +986,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -991,15 +1024,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,21 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1080,148 +1089,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1647,10 +1656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3950,7 +3959,9 @@
       <c r="B224" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C224" s="5"/>
+      <c r="C224" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D224" s="5"/>
     </row>
     <row r="225" ht="22.5" spans="1:4">
@@ -3960,7 +3971,9 @@
       <c r="B225" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C225" s="5"/>
+      <c r="C225" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D225" s="6"/>
     </row>
     <row r="226" ht="45" spans="1:4">
@@ -3970,7 +3983,9 @@
       <c r="B226" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C226" s="9"/>
+      <c r="C226" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D226" s="6"/>
     </row>
     <row r="227" ht="45" spans="1:4">
@@ -3980,7 +3995,9 @@
       <c r="B227" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C227" s="9"/>
+      <c r="C227" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D227" s="6"/>
     </row>
     <row r="228" ht="22.5" spans="1:4">
@@ -3990,7 +4007,9 @@
       <c r="B228" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C228" s="5"/>
+      <c r="C228" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D228" s="6"/>
     </row>
     <row r="229" ht="45" spans="1:4">
@@ -4000,7 +4019,9 @@
       <c r="B229" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C229" s="9"/>
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D229" s="6"/>
     </row>
     <row r="230" ht="22.5" spans="1:4">
@@ -4011,8 +4032,98 @@
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
     </row>
+    <row r="232" ht="22.5" spans="1:4">
+      <c r="A232" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" ht="22.5" spans="1:4">
+      <c r="A233" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" ht="22.5" spans="1:4">
+      <c r="A234" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" ht="22.5" spans="1:4">
+      <c r="A235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" ht="22.5" spans="1:4">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" ht="22.5" spans="1:4">
+      <c r="A237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" ht="22.5" spans="1:4">
+      <c r="A238" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" ht="22.5" spans="1:4">
+      <c r="A239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="6"/>
+    </row>
+    <row r="240" ht="22.5" spans="1:4">
+      <c r="A240" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -4060,6 +4171,8 @@
     <mergeCell ref="A220:D220"/>
     <mergeCell ref="A222:D222"/>
     <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A240:D240"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -596,6 +596,18 @@
   </si>
   <si>
     <t>完善前端“我的”模块</t>
+  </si>
+  <si>
+    <t>总结：抓紧时间，冲刺</t>
+  </si>
+  <si>
+    <t>日期：2017.11.20&amp;11.21 第十三周 周一&amp;周二</t>
+  </si>
+  <si>
+    <t>完善web app接口所有模块</t>
+  </si>
+  <si>
+    <t>帮助前端开发人员开发小模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -606,10 +618,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -765,13 +777,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -781,6 +786,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +807,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,169 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,10 +1104,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,16 +1116,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,112 +1137,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,10 +1668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250:D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4061,7 +4073,9 @@
       <c r="B234" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C234" s="5"/>
+      <c r="C234" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D234" s="5"/>
     </row>
     <row r="235" ht="22.5" spans="1:4">
@@ -4071,7 +4085,9 @@
       <c r="B235" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C235" s="5"/>
+      <c r="C235" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D235" s="6"/>
     </row>
     <row r="236" ht="22.5" spans="1:4">
@@ -4091,7 +4107,9 @@
       <c r="B237" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C237" s="9"/>
+      <c r="C237" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D237" s="6"/>
     </row>
     <row r="238" ht="22.5" spans="1:4">
@@ -4101,7 +4119,9 @@
       <c r="B238" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C238" s="5"/>
+      <c r="C238" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D238" s="6"/>
     </row>
     <row r="239" ht="22.5" spans="1:4">
@@ -4122,8 +4142,98 @@
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
     </row>
+    <row r="242" ht="22.5" spans="1:4">
+      <c r="A242" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" ht="22.5" spans="1:4">
+      <c r="A243" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" ht="22.5" spans="1:4">
+      <c r="A244" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" ht="22.5" spans="1:4">
+      <c r="A245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" ht="45" spans="1:4">
+      <c r="A246" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" ht="22.5" spans="1:4">
+      <c r="A247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" ht="45" spans="1:4">
+      <c r="A248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" ht="45" spans="1:4">
+      <c r="A249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" ht="22.5" spans="1:4">
+      <c r="A250" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -4173,6 +4283,8 @@
     <mergeCell ref="A230:D230"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A250:D250"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第三组（小马）/小组计划实施表.xlsx
+++ b/第三组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>第三小组计划实施表</t>
   </si>
@@ -608,6 +608,18 @@
   </si>
   <si>
     <t>帮助前端开发人员开发小模块</t>
+  </si>
+  <si>
+    <t>总结：时间不等人</t>
+  </si>
+  <si>
+    <t>日期：2017.11.22 第十三周 周三</t>
+  </si>
+  <si>
+    <t>继续完善web app接口所有模块</t>
+  </si>
+  <si>
+    <t>帮助前端开发人员“消息”模块</t>
   </si>
   <si>
     <t>总结：</t>
@@ -618,10 +630,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -777,6 +789,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -790,13 +809,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -804,6 +816,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -819,13 +849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +903,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,37 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,61 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,10 +1116,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,16 +1128,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,112 +1149,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1668,10 +1680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250:D250"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4171,7 +4183,9 @@
       <c r="B244" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C244" s="5"/>
+      <c r="C244" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D244" s="5"/>
     </row>
     <row r="245" ht="22.5" spans="1:4">
@@ -4181,7 +4195,9 @@
       <c r="B245" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C245" s="5"/>
+      <c r="C245" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D245" s="6"/>
     </row>
     <row r="246" ht="45" spans="1:4">
@@ -4191,7 +4207,9 @@
       <c r="B246" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C246" s="9"/>
+      <c r="C246" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D246" s="6"/>
     </row>
     <row r="247" ht="22.5" spans="1:4">
@@ -4201,7 +4219,9 @@
       <c r="B247" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C247" s="9"/>
+      <c r="C247" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D247" s="6"/>
     </row>
     <row r="248" ht="45" spans="1:4">
@@ -4211,7 +4231,9 @@
       <c r="B248" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C248" s="5"/>
+      <c r="C248" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D248" s="6"/>
     </row>
     <row r="249" ht="45" spans="1:4">
@@ -4221,7 +4243,9 @@
       <c r="B249" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C249" s="9"/>
+      <c r="C249" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D249" s="6"/>
     </row>
     <row r="250" ht="22.5" spans="1:4">
@@ -4232,8 +4256,98 @@
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
     </row>
+    <row r="252" ht="22.5" spans="1:4">
+      <c r="A252" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" ht="22.5" spans="1:4">
+      <c r="A253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" ht="45" spans="1:4">
+      <c r="A254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" ht="22.5" spans="1:4">
+      <c r="A255" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" ht="45" spans="1:4">
+      <c r="A256" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" ht="22.5" spans="1:4">
+      <c r="A257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" ht="45" spans="1:4">
+      <c r="A258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" ht="45" spans="1:4">
+      <c r="A259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" ht="22.5" spans="1:4">
+      <c r="A260" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -4285,6 +4399,8 @@
     <mergeCell ref="A240:D240"/>
     <mergeCell ref="A242:D242"/>
     <mergeCell ref="A250:D250"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="A260:D260"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
